--- a/sensor_data.xlsx
+++ b/sensor_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/PycharmProjects/flaskData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rizki\Kerja UNISBA\Penelitian internal\2024\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D00DA8-F80E-834F-87A2-A02AA0C20850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A607FF3E-FAE1-4783-A11D-2636898FA117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24520" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1485" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,15 +401,15 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45573.490359768519</v>
       </c>
@@ -431,13 +431,13 @@
         <v>27.8</v>
       </c>
       <c r="C2">
-        <v>99.9</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="D2">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45573.493832615743</v>
       </c>
@@ -445,13 +445,13 @@
         <v>27.5</v>
       </c>
       <c r="C3">
-        <v>99.9</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="D3">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45573.497314444438</v>
       </c>
@@ -459,13 +459,13 @@
         <v>27.7</v>
       </c>
       <c r="C4">
-        <v>99.4</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="D4">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45573.500777511566</v>
       </c>
@@ -473,13 +473,13 @@
         <v>27.9</v>
       </c>
       <c r="C5">
-        <v>99.9</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45573.507731990743</v>
       </c>
@@ -487,13 +487,13 @@
         <v>27.7</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45573.511206898147</v>
       </c>
@@ -501,13 +501,13 @@
         <v>27.7</v>
       </c>
       <c r="C7">
-        <v>96.2</v>
+        <v>76.2</v>
       </c>
       <c r="D7">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45573.514665706018</v>
       </c>
@@ -515,13 +515,13 @@
         <v>27.6</v>
       </c>
       <c r="C8">
-        <v>95.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D8">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45573.518135810184</v>
       </c>
@@ -529,13 +529,13 @@
         <v>27.9</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45573.528556111109</v>
       </c>
@@ -549,7 +549,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45573.532033217591</v>
       </c>
@@ -557,13 +557,13 @@
         <v>27.8</v>
       </c>
       <c r="C11">
-        <v>96.4</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="D11">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45573.535515520831</v>
       </c>
@@ -571,13 +571,13 @@
         <v>27.7</v>
       </c>
       <c r="C12">
-        <v>95.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D12">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45573.538969490743</v>
       </c>
@@ -585,13 +585,13 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>95.5</v>
+        <v>75.5</v>
       </c>
       <c r="D13">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45573.542443951912</v>
       </c>
@@ -599,7 +599,7 @@
         <v>27.9</v>
       </c>
       <c r="C14">
-        <v>94.7</v>
+        <v>74.7</v>
       </c>
       <c r="D14">
         <v>120</v>
